--- a/keyvol50a-0.28b-3nodenum-50.xlsx
+++ b/keyvol50a-0.28b-3nodenum-50.xlsx
@@ -490,7 +490,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -502,400 +502,400 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.2073950031204589</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.8412349897295064</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.395614424209793</v>
       </c>
       <c r="H2" t="n">
-        <v>1240</v>
+        <v>522</v>
       </c>
       <c r="I2" t="n">
-        <v>1210</v>
+        <v>375</v>
       </c>
       <c r="J2" t="n">
-        <v>1210</v>
+        <v>456</v>
       </c>
       <c r="K2" t="n">
-        <v/>
+        <v>723.257541132161</v>
       </c>
       <c r="L2" t="n">
-        <v/>
+        <v>178.3092736647004</v>
       </c>
       <c r="M2" t="n">
-        <v/>
+        <v>379.1570550027657</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>520</v>
+        <v>160</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2301844307899705</v>
+        <v>0.4900854074518377</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.132736603865863</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2591367115857802</v>
+        <v>0.6579744141326479</v>
       </c>
       <c r="H3" t="n">
-        <v>1289.6</v>
+        <v>553.6</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="J3" t="n">
-        <v>1258.4</v>
+        <v>451.2</v>
       </c>
       <c r="K3" t="n">
-        <v>2380.04</v>
+        <v>326.4737075766202</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>141.2508428296072</v>
       </c>
       <c r="M3" t="n">
-        <v>2158</v>
+        <v>243.1705497407745</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>540</v>
+        <v>170</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4603688615799411</v>
+        <v>0.7830578394571934</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1.462853086553259</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5182734231715604</v>
+        <v>0.9416203354132986</v>
       </c>
       <c r="H4" t="n">
-        <v>1339.2</v>
+        <v>612</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>425</v>
       </c>
       <c r="J4" t="n">
-        <v>1306.8</v>
+        <v>462.4</v>
       </c>
       <c r="K4" t="n">
-        <v>1235.79</v>
+        <v>217.0976285964291</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>116.2112597380166</v>
       </c>
       <c r="M4" t="n">
-        <v>1120.5</v>
+        <v>180.5398562525555</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>560</v>
+        <v>180</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6905532923699116</v>
+        <v>1.361048063691708</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1.80939589952687</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7774101347573407</v>
+        <v>1.292809806842161</v>
       </c>
       <c r="H5" t="n">
-        <v>1388.8</v>
+        <v>529.2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="J5" t="n">
-        <v>1355.2</v>
+        <v>478.8</v>
       </c>
       <c r="K5" t="n">
-        <v>854.3733333333331</v>
+        <v>132.2510238997496</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>99.48071621421676</v>
       </c>
       <c r="M5" t="n">
-        <v>774.6666666666664</v>
+        <v>139.2316170927501</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>580</v>
+        <v>190</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9207377231598821</v>
+        <v>1.909286506054096</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>2.158865541768774</v>
       </c>
       <c r="G6" t="n">
-        <v>1.036546846343121</v>
+        <v>1.630111022191346</v>
       </c>
       <c r="H6" t="n">
-        <v>1438.4</v>
+        <v>475</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>475</v>
       </c>
       <c r="J6" t="n">
-        <v>1403.6</v>
+        <v>501.6</v>
       </c>
       <c r="K6" t="n">
-        <v>663.665</v>
+        <v>99.51361380156146</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>88.00918645648105</v>
       </c>
       <c r="M6" t="n">
-        <v>601.75</v>
+        <v>116.5564783094249</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.150922153949852</v>
+        <v>2.254015358575423</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>2.523212329448799</v>
       </c>
       <c r="G7" t="n">
-        <v>1.295683557928901</v>
+        <v>1.992674065560445</v>
       </c>
       <c r="H7" t="n">
-        <v>1488</v>
+        <v>500</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J7" t="n">
-        <v>1452</v>
+        <v>520</v>
       </c>
       <c r="K7" t="n">
-        <v>549.24</v>
+        <v>88.73054002897456</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>79.26403880710683</v>
       </c>
       <c r="M7" t="n">
-        <v>498</v>
+        <v>100.3676433876553</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>620</v>
+        <v>210</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1.381106584739823</v>
+        <v>2.60322569257823</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2.892040598610305</v>
       </c>
       <c r="G8" t="n">
-        <v>1.554820269514681</v>
+        <v>2.351624756672032</v>
       </c>
       <c r="H8" t="n">
-        <v>1537.6</v>
+        <v>525</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>525</v>
       </c>
       <c r="J8" t="n">
-        <v>1500.4</v>
+        <v>541.8</v>
       </c>
       <c r="K8" t="n">
-        <v>472.9566666666664</v>
+        <v>80.66914851013796</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>72.61308852334577</v>
       </c>
       <c r="M8" t="n">
-        <v>428.8333333333332</v>
+        <v>89.29996140080929</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>640</v>
+        <v>220</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>1.611291015529793</v>
+        <v>2.95243602658104</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>3.260868867771813</v>
       </c>
       <c r="G9" t="n">
-        <v>1.813956981100461</v>
+        <v>2.657051742825132</v>
       </c>
       <c r="H9" t="n">
-        <v>1587.2</v>
+        <v>550</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="J9" t="n">
-        <v>1548.8</v>
+        <v>576.4</v>
       </c>
       <c r="K9" t="n">
-        <v>418.4685714285715</v>
+        <v>74.51473902205527</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>67.46668109666379</v>
       </c>
       <c r="M9" t="n">
-        <v>379.4285714285714</v>
+        <v>82.79853811430982</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>660</v>
+        <v>230</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1.841475446319764</v>
+        <v>3.301646360583848</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>3.62969713693332</v>
       </c>
       <c r="G10" t="n">
-        <v>2.073093692686242</v>
+        <v>2.992258569854128</v>
       </c>
       <c r="H10" t="n">
-        <v>1636.8</v>
+        <v>575</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>575</v>
       </c>
       <c r="J10" t="n">
-        <v>1597.2</v>
+        <v>602.6</v>
       </c>
       <c r="K10" t="n">
-        <v>377.6025</v>
+        <v>69.66221541647114</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>63.36616839451342</v>
       </c>
       <c r="M10" t="n">
-        <v>342.375</v>
+        <v>76.86501504821908</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>680</v>
+        <v>240</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>2.071659877109735</v>
+        <v>3.650856694586656</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>3.998525406094825</v>
       </c>
       <c r="G11" t="n">
-        <v>2.332230404272022</v>
+        <v>3.334077233826668</v>
       </c>
       <c r="H11" t="n">
-        <v>1686.4</v>
+        <v>600</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="J11" t="n">
-        <v>1645.6</v>
+        <v>628.8</v>
       </c>
       <c r="K11" t="n">
-        <v>345.8177777777777</v>
+        <v>65.73799523708021</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>60.02212706568667</v>
       </c>
       <c r="M11" t="n">
-        <v>313.5555555555556</v>
+        <v>71.98393533449774</v>
       </c>
     </row>
   </sheetData>

--- a/keyvol50a-0.28b-3nodenum-50.xlsx
+++ b/keyvol50a-0.28b-3nodenum-50.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,7 +490,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -502,36 +502,36 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2073950031204589</v>
+        <v>0.2557166167166167</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8412349897295064</v>
+        <v>0.8677138268225897</v>
       </c>
       <c r="G2" t="n">
-        <v>0.395614424209793</v>
+        <v>0.454298336542612</v>
       </c>
       <c r="H2" t="n">
-        <v>522</v>
+        <v>760</v>
       </c>
       <c r="I2" t="n">
-        <v>375</v>
+        <v>550</v>
       </c>
       <c r="J2" t="n">
-        <v>456</v>
+        <v>695</v>
       </c>
       <c r="K2" t="n">
-        <v>723.257541132161</v>
+        <v>977.6447194162911</v>
       </c>
       <c r="L2" t="n">
-        <v>178.3092736647004</v>
+        <v>288.1134220431344</v>
       </c>
       <c r="M2" t="n">
-        <v>379.1570550027657</v>
+        <v>550.2991754330376</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -543,36 +543,36 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4900854074518377</v>
+        <v>0.3246069763569763</v>
       </c>
       <c r="F3" t="n">
-        <v>1.132736603865863</v>
+        <v>1.165927172697072</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6579744141326479</v>
+        <v>0.6729008426042787</v>
       </c>
       <c r="H3" t="n">
-        <v>553.6</v>
+        <v>941.2</v>
       </c>
       <c r="I3" t="n">
-        <v>400</v>
+        <v>572</v>
       </c>
       <c r="J3" t="n">
-        <v>451.2</v>
+        <v>681.2</v>
       </c>
       <c r="K3" t="n">
-        <v>326.4737075766202</v>
+        <v>800.9686141621096</v>
       </c>
       <c r="L3" t="n">
-        <v>141.2508428296072</v>
+        <v>222.9984908907793</v>
       </c>
       <c r="M3" t="n">
-        <v>243.1705497407745</v>
+        <v>386.3867951089808</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>170</v>
+        <v>270</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -584,36 +584,36 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7830578394571934</v>
+        <v>0.7484637201709642</v>
       </c>
       <c r="F4" t="n">
-        <v>1.462853086553259</v>
+        <v>1.488098742540802</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9416203354132986</v>
+        <v>0.9520602847416919</v>
       </c>
       <c r="H4" t="n">
-        <v>612</v>
+        <v>912.6</v>
       </c>
       <c r="I4" t="n">
-        <v>425</v>
+        <v>594</v>
       </c>
       <c r="J4" t="n">
-        <v>462.4</v>
+        <v>691.2</v>
       </c>
       <c r="K4" t="n">
-        <v>217.0976285964291</v>
+        <v>360.7389279180113</v>
       </c>
       <c r="L4" t="n">
-        <v>116.2112597380166</v>
+        <v>181.439572712089</v>
       </c>
       <c r="M4" t="n">
-        <v>180.5398562525555</v>
+        <v>283.5954868900503</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -625,36 +625,36 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>1.361048063691708</v>
+        <v>1.293386174312359</v>
       </c>
       <c r="F5" t="n">
-        <v>1.80939589952687</v>
+        <v>1.833037941175178</v>
       </c>
       <c r="G5" t="n">
-        <v>1.292809806842161</v>
+        <v>1.303300401374242</v>
       </c>
       <c r="H5" t="n">
-        <v>529.2</v>
+        <v>761.6</v>
       </c>
       <c r="I5" t="n">
-        <v>450</v>
+        <v>616</v>
       </c>
       <c r="J5" t="n">
-        <v>478.8</v>
+        <v>683.2</v>
       </c>
       <c r="K5" t="n">
-        <v>132.2510238997496</v>
+        <v>216.4860005163305</v>
       </c>
       <c r="L5" t="n">
-        <v>99.48071621421676</v>
+        <v>152.7518845684609</v>
       </c>
       <c r="M5" t="n">
-        <v>139.2316170927501</v>
+        <v>214.8391880373542</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>190</v>
+        <v>290</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -666,36 +666,36 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1.909286506054096</v>
+        <v>1.991326704228278</v>
       </c>
       <c r="F6" t="n">
-        <v>2.158865541768774</v>
+        <v>2.195027792947164</v>
       </c>
       <c r="G6" t="n">
-        <v>1.630111022191346</v>
+        <v>1.681503347942471</v>
       </c>
       <c r="H6" t="n">
-        <v>475</v>
+        <v>638</v>
       </c>
       <c r="I6" t="n">
-        <v>475</v>
+        <v>638</v>
       </c>
       <c r="J6" t="n">
-        <v>501.6</v>
+        <v>690.2</v>
       </c>
       <c r="K6" t="n">
-        <v>99.51361380156146</v>
+        <v>145.6315527654148</v>
       </c>
       <c r="L6" t="n">
-        <v>88.00918645648105</v>
+        <v>132.116778171009</v>
       </c>
       <c r="M6" t="n">
-        <v>116.5564783094249</v>
+        <v>172.4647175724337</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -707,36 +707,36 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>2.254015358575423</v>
+        <v>2.356662496650106</v>
       </c>
       <c r="F7" t="n">
-        <v>2.523212329448799</v>
+        <v>2.581166576259387</v>
       </c>
       <c r="G7" t="n">
-        <v>1.992674065560445</v>
+        <v>2.109286943323685</v>
       </c>
       <c r="H7" t="n">
-        <v>500</v>
+        <v>660</v>
       </c>
       <c r="I7" t="n">
-        <v>500</v>
+        <v>660</v>
       </c>
       <c r="J7" t="n">
-        <v>520</v>
+        <v>690</v>
       </c>
       <c r="K7" t="n">
-        <v>88.73054002897456</v>
+        <v>127.2986693794453</v>
       </c>
       <c r="L7" t="n">
-        <v>79.26403880710683</v>
+        <v>116.2265166298404</v>
       </c>
       <c r="M7" t="n">
-        <v>100.3676433876553</v>
+        <v>142.2281595918279</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>210</v>
+        <v>310</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -748,36 +748,36 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>2.60322569257823</v>
+        <v>2.72271257478622</v>
       </c>
       <c r="F8" t="n">
-        <v>2.892040598610305</v>
+        <v>2.96730535957161</v>
       </c>
       <c r="G8" t="n">
-        <v>2.351624756672032</v>
+        <v>2.495475317833816</v>
       </c>
       <c r="H8" t="n">
-        <v>525</v>
+        <v>682</v>
       </c>
       <c r="I8" t="n">
-        <v>525</v>
+        <v>682</v>
       </c>
       <c r="J8" t="n">
-        <v>541.8</v>
+        <v>706.8</v>
       </c>
       <c r="K8" t="n">
-        <v>80.66914851013796</v>
+        <v>113.8570420068451</v>
       </c>
       <c r="L8" t="n">
-        <v>72.61308852334577</v>
+        <v>104.4718902960343</v>
       </c>
       <c r="M8" t="n">
-        <v>89.29996140080929</v>
+        <v>124.2248311512429</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>220</v>
+        <v>320</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -789,36 +789,36 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>2.95243602658104</v>
+        <v>3.088762652922332</v>
       </c>
       <c r="F9" t="n">
-        <v>3.260868867771813</v>
+        <v>3.353444142883832</v>
       </c>
       <c r="G9" t="n">
-        <v>2.657051742825132</v>
+        <v>2.891663692343945</v>
       </c>
       <c r="H9" t="n">
-        <v>550</v>
+        <v>704</v>
       </c>
       <c r="I9" t="n">
-        <v>550</v>
+        <v>704</v>
       </c>
       <c r="J9" t="n">
-        <v>576.4</v>
+        <v>716.8</v>
       </c>
       <c r="K9" t="n">
-        <v>74.51473902205527</v>
+        <v>103.6013562574134</v>
       </c>
       <c r="L9" t="n">
-        <v>67.46668109666379</v>
+        <v>95.42428213067311</v>
       </c>
       <c r="M9" t="n">
-        <v>82.79853811430982</v>
+        <v>110.6629380336453</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -830,36 +830,36 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>3.301646360583848</v>
+        <v>3.454812731058445</v>
       </c>
       <c r="F10" t="n">
-        <v>3.62969713693332</v>
+        <v>3.739582926196053</v>
       </c>
       <c r="G10" t="n">
-        <v>2.992258569854128</v>
+        <v>3.257852066854075</v>
       </c>
       <c r="H10" t="n">
-        <v>575</v>
+        <v>726</v>
       </c>
       <c r="I10" t="n">
-        <v>575</v>
+        <v>726</v>
       </c>
       <c r="J10" t="n">
-        <v>602.6</v>
+        <v>739.2</v>
       </c>
       <c r="K10" t="n">
-        <v>69.66221541647114</v>
+        <v>95.51892553634839</v>
       </c>
       <c r="L10" t="n">
-        <v>63.36616839451342</v>
+        <v>88.24513495564592</v>
       </c>
       <c r="M10" t="n">
-        <v>76.86501504821908</v>
+        <v>101.2937337939541</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -871,31 +871,236 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>3.650856694586656</v>
+        <v>3.82086280919456</v>
       </c>
       <c r="F11" t="n">
-        <v>3.998525406094825</v>
+        <v>4.125721709508278</v>
       </c>
       <c r="G11" t="n">
-        <v>3.334077233826668</v>
+        <v>3.58510089685075</v>
       </c>
       <c r="H11" t="n">
-        <v>600</v>
+        <v>748</v>
       </c>
       <c r="I11" t="n">
-        <v>600</v>
+        <v>748</v>
       </c>
       <c r="J11" t="n">
-        <v>628.8</v>
+        <v>768.4</v>
       </c>
       <c r="K11" t="n">
-        <v>65.73799523708021</v>
+        <v>88.9851368601408</v>
       </c>
       <c r="L11" t="n">
-        <v>60.02212706568667</v>
+        <v>82.4098240112571</v>
       </c>
       <c r="M11" t="n">
-        <v>71.98393533449774</v>
+        <v>94.8369403769543</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>350</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4.186912887330672</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4.511860492820498</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3.945831714425062</v>
+      </c>
+      <c r="H12" t="n">
+        <v>770</v>
+      </c>
+      <c r="I12" t="n">
+        <v>770</v>
+      </c>
+      <c r="J12" t="n">
+        <v>791</v>
+      </c>
+      <c r="K12" t="n">
+        <v>83.5938099068355</v>
+      </c>
+      <c r="L12" t="n">
+        <v>77.57332048651278</v>
+      </c>
+      <c r="M12" t="n">
+        <v>88.7011979554221</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>360</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4.552962965466786</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4.897999276132722</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4.305011415665649</v>
+      </c>
+      <c r="H13" t="n">
+        <v>792</v>
+      </c>
+      <c r="I13" t="n">
+        <v>792</v>
+      </c>
+      <c r="J13" t="n">
+        <v>813.6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>79.06938903973526</v>
+      </c>
+      <c r="L13" t="n">
+        <v>73.49939836745804</v>
+      </c>
+      <c r="M13" t="n">
+        <v>83.62347163354411</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>370</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4.9190130436029</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5.284138059444944</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4.689406009459961</v>
+      </c>
+      <c r="H14" t="n">
+        <v>814</v>
+      </c>
+      <c r="I14" t="n">
+        <v>814</v>
+      </c>
+      <c r="J14" t="n">
+        <v>828.8</v>
+      </c>
+      <c r="K14" t="n">
+        <v>75.21834089892874</v>
+      </c>
+      <c r="L14" t="n">
+        <v>70.02088057458241</v>
+      </c>
+      <c r="M14" t="n">
+        <v>78.90125087347892</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>380</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5.285063121739012</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5.670276842757164</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5.047426219017816</v>
+      </c>
+      <c r="H15" t="n">
+        <v>836</v>
+      </c>
+      <c r="I15" t="n">
+        <v>836</v>
+      </c>
+      <c r="J15" t="n">
+        <v>851.2</v>
+      </c>
+      <c r="K15" t="n">
+        <v>71.90074957420069</v>
+      </c>
+      <c r="L15" t="n">
+        <v>67.01612823109102</v>
+      </c>
+      <c r="M15" t="n">
+        <v>75.28589493160429</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>390</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5.651113199875125</v>
+      </c>
+      <c r="F16" t="n">
+        <v>6.056415626069388</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5.405446428575674</v>
+      </c>
+      <c r="H16" t="n">
+        <v>858</v>
+      </c>
+      <c r="I16" t="n">
+        <v>858</v>
+      </c>
+      <c r="J16" t="n">
+        <v>873.6</v>
+      </c>
+      <c r="K16" t="n">
+        <v>69.0129512904852</v>
+      </c>
+      <c r="L16" t="n">
+        <v>64.39452377100312</v>
+      </c>
+      <c r="M16" t="n">
+        <v>72.14945243713466</v>
       </c>
     </row>
   </sheetData>
